--- a/features.xlsx
+++ b/features.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>Priority</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>Make header lower</t>
+  </si>
+  <si>
+    <t>LOL</t>
   </si>
 </sst>
 </file>
@@ -588,7 +591,7 @@
   <dimension ref="B3:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,6 +631,9 @@
       </c>
       <c r="E4" s="11" t="s">
         <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
